--- a/mcmaster_excel/High-Strength_A286_Stainless_Steel_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/High-Strength_A286_Stainless_Steel_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,109 +434,81 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>130,000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>90939A111</t>
-        </is>
-      </c>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$6.29</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>A286 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -566,12 +538,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90939A112</t>
+          <t>90939A111</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>$6.29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -588,7 +560,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -618,12 +590,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90939A113</t>
+          <t>90939A112</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -640,7 +612,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -670,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>90939A114</t>
+          <t>90939A113</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -692,7 +664,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -722,12 +694,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>90939A115</t>
+          <t>90939A114</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -744,7 +716,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -754,17 +726,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -774,17 +746,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>90939A116</t>
+          <t>90939A115</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -796,7 +768,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -826,12 +798,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>90939A117</t>
+          <t>90939A116</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,7 +820,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -878,12 +850,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>90939A118</t>
+          <t>90939A117</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -900,7 +872,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -930,12 +902,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>90939A119</t>
+          <t>90939A118</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -952,7 +924,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -982,12 +954,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>90939A121</t>
+          <t>90939A119</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1004,7 +976,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1014,17 +986,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1034,17 +1006,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>90939A122</t>
+          <t>90939A121</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1056,7 +1028,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1086,12 +1058,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>90939A123</t>
+          <t>90939A122</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1108,7 +1080,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1138,12 +1110,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>90939A124</t>
+          <t>90939A123</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1160,7 +1132,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1190,12 +1162,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>90939A125</t>
+          <t>90939A124</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1212,7 +1184,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1242,12 +1214,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>90939A126</t>
+          <t>90939A125</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1264,7 +1236,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1274,17 +1246,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1294,17 +1266,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>90939A127</t>
+          <t>90939A126</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1316,7 +1288,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1346,12 +1318,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>90939A128</t>
+          <t>90939A127</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1368,7 +1340,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1398,12 +1370,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>90939A129</t>
+          <t>90939A128</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1420,7 +1392,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1450,12 +1422,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>90939A131</t>
+          <t>90939A129</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>17.39</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1472,7 +1444,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1502,12 +1474,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>90939A132</t>
+          <t>90939A131</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1524,7 +1496,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1554,17 +1526,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>90939A133</t>
+          <t>90939A132</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>21.51</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1576,7 +1548,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1606,12 +1578,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>90939A134</t>
+          <t>90939A133</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1628,7 +1600,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1658,12 +1630,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>90939A135</t>
+          <t>90939A134</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1680,7 +1652,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1710,12 +1682,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>90939A136</t>
+          <t>90939A135</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1732,7 +1704,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1762,12 +1734,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>90939A137</t>
+          <t>90939A136</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1784,7 +1756,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1794,17 +1766,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1814,17 +1786,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>90939A138</t>
+          <t>90939A137</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>21.51</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1836,7 +1808,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1866,12 +1838,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>90939A139</t>
+          <t>90939A138</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1888,7 +1860,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1918,12 +1890,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>90939A141</t>
+          <t>90939A139</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.29</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1940,7 +1912,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1970,12 +1942,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>90939A142</t>
+          <t>90939A141</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>26.37</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1992,50 +1964,102 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>130,000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>90939A142</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>A286 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.437"</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.132"</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>T30</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>130,000</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>130,000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>90939A143</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>33.85</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
         </is>
